--- a/output/IBIUNA_15603942000131.xlsx
+++ b/output/IBIUNA_15603942000131.xlsx
@@ -1505,10 +1505,10 @@
         <v>44165</v>
       </c>
       <c r="B102">
-        <v>2.008605895</v>
+        <v>2.009316914</v>
       </c>
       <c r="C102">
-        <v>-0.004204598665371706</v>
+        <v>-0.003969263937204759</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_15603942000131.xlsx
+++ b/output/IBIUNA_15603942000131.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA HEDGE STR FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41121</v>
       </c>
@@ -411,1104 +405,804 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41152</v>
       </c>
       <c r="B3">
         <v>6.212700000007843e-05</v>
       </c>
-      <c r="C3">
-        <v>6.212700000007843e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41182</v>
       </c>
       <c r="B4">
-        <v>0.01581168299999991</v>
-      </c>
-      <c r="C4">
         <v>0.01574857758812009</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41213</v>
       </c>
       <c r="B5">
-        <v>0.0664894359999999</v>
-      </c>
-      <c r="C5">
         <v>0.04988892513062382</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41243</v>
       </c>
       <c r="B6">
-        <v>0.09521023499999992</v>
-      </c>
-      <c r="C6">
         <v>0.02693022362014275</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41274</v>
       </c>
       <c r="B7">
-        <v>0.1397810099999999</v>
-      </c>
-      <c r="C7">
         <v>0.04069609064601187</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41305</v>
       </c>
       <c r="B8">
-        <v>0.1767334780000001</v>
-      </c>
-      <c r="C8">
         <v>0.03242067351166011</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41333</v>
       </c>
       <c r="B9">
-        <v>0.15476109</v>
-      </c>
-      <c r="C9">
         <v>-0.01867235734411565</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41364</v>
       </c>
       <c r="B10">
-        <v>0.1680232750000001</v>
-      </c>
-      <c r="C10">
         <v>0.01148478686617338</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41394</v>
       </c>
       <c r="B11">
-        <v>0.175465478</v>
-      </c>
-      <c r="C11">
         <v>0.006371622175080249</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41425</v>
       </c>
       <c r="B12">
-        <v>0.2242822739999999</v>
-      </c>
-      <c r="C12">
         <v>0.0415297572865001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41455</v>
       </c>
       <c r="B13">
-        <v>0.2366488200000001</v>
-      </c>
-      <c r="C13">
         <v>0.01010105778922687</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41486</v>
       </c>
       <c r="B14">
-        <v>0.2530054819999998</v>
-      </c>
-      <c r="C14">
         <v>0.01322660219738037</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41517</v>
       </c>
       <c r="B15">
-        <v>0.238445697</v>
-      </c>
-      <c r="C15">
         <v>-0.01161988930548019</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41547</v>
       </c>
       <c r="B16">
-        <v>0.181626294</v>
-      </c>
-      <c r="C16">
         <v>-0.0458796079130791</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41578</v>
       </c>
       <c r="B17">
-        <v>0.1814585909999999</v>
-      </c>
-      <c r="C17">
         <v>-0.0001419255824379739</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41608</v>
       </c>
       <c r="B18">
-        <v>0.2175407970000001</v>
-      </c>
-      <c r="C18">
         <v>0.03054038988320329</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41639</v>
       </c>
       <c r="B19">
-        <v>0.2497432399999999</v>
-      </c>
-      <c r="C19">
         <v>0.02644875890758325</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41670</v>
       </c>
       <c r="B20">
-        <v>0.239102562</v>
-      </c>
-      <c r="C20">
         <v>-0.008514291303547972</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41698</v>
       </c>
       <c r="B21">
-        <v>0.244895452</v>
-      </c>
-      <c r="C21">
         <v>0.00467506901983139</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41729</v>
       </c>
       <c r="B22">
-        <v>0.2508089599999999</v>
-      </c>
-      <c r="C22">
         <v>0.004750204517575796</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41759</v>
       </c>
       <c r="B23">
-        <v>0.251597971</v>
-      </c>
-      <c r="C23">
         <v>0.000630800566059353</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41790</v>
       </c>
       <c r="B24">
-        <v>0.263786434</v>
-      </c>
-      <c r="C24">
         <v>0.009738321156163021</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41820</v>
       </c>
       <c r="B25">
-        <v>0.2971618169999999</v>
-      </c>
-      <c r="C25">
         <v>0.02640903724086008</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41851</v>
       </c>
       <c r="B26">
-        <v>0.3167182869999998</v>
-      </c>
-      <c r="C26">
         <v>0.01507635342306712</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41882</v>
       </c>
       <c r="B27">
-        <v>0.3347896480000001</v>
-      </c>
-      <c r="C27">
         <v>0.01372454622861952</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41912</v>
       </c>
       <c r="B28">
-        <v>0.2955217110000001</v>
-      </c>
-      <c r="C28">
         <v>-0.02941882045522126</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41943</v>
       </c>
       <c r="B29">
-        <v>0.27682776</v>
-      </c>
-      <c r="C29">
         <v>-0.01442967017941399</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41973</v>
       </c>
       <c r="B30">
-        <v>0.2963567300000001</v>
-      </c>
-      <c r="C30">
         <v>0.01529491338753486</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42004</v>
       </c>
       <c r="B31">
-        <v>0.3113372759999999</v>
-      </c>
-      <c r="C31">
         <v>0.01155588246145789</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42035</v>
       </c>
       <c r="B32">
-        <v>0.3773276459999999</v>
-      </c>
-      <c r="C32">
         <v>0.05032295749366011</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42063</v>
       </c>
       <c r="B33">
-        <v>0.414487125</v>
-      </c>
-      <c r="C33">
         <v>0.02697940399869103</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42094</v>
       </c>
       <c r="B34">
-        <v>0.499657756</v>
-      </c>
-      <c r="C34">
         <v>0.06021308324033003</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42124</v>
       </c>
       <c r="B35">
-        <v>0.4368819629999998</v>
-      </c>
-      <c r="C35">
         <v>-0.04186007957404925</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42155</v>
       </c>
       <c r="B36">
-        <v>0.4619766029999999</v>
-      </c>
-      <c r="C36">
         <v>0.0174646495997528</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42185</v>
       </c>
       <c r="B37">
-        <v>0.43560629</v>
-      </c>
-      <c r="C37">
         <v>-0.01803743845550443</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42216</v>
       </c>
       <c r="B38">
-        <v>0.498208897</v>
-      </c>
-      <c r="C38">
         <v>0.04360708603470953</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42247</v>
       </c>
       <c r="B39">
-        <v>0.5067951049999999</v>
-      </c>
-      <c r="C39">
         <v>0.005730981852525963</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42277</v>
       </c>
       <c r="B40">
-        <v>0.536789527</v>
-      </c>
-      <c r="C40">
         <v>0.0199061052829741</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42308</v>
       </c>
       <c r="B41">
-        <v>0.529095026</v>
-      </c>
-      <c r="C41">
         <v>-0.005006867150520344</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42338</v>
       </c>
       <c r="B42">
-        <v>0.5514464910000001</v>
-      </c>
-      <c r="C42">
         <v>0.01461744667267006</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42369</v>
       </c>
       <c r="B43">
-        <v>0.55316604</v>
-      </c>
-      <c r="C43">
         <v>0.001108352115251954</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42400</v>
       </c>
       <c r="B44">
-        <v>0.587365103</v>
-      </c>
-      <c r="C44">
         <v>0.02201893559300339</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42429</v>
       </c>
       <c r="B45">
-        <v>0.595478862</v>
-      </c>
-      <c r="C45">
         <v>0.005111463635344871</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42460</v>
       </c>
       <c r="B46">
-        <v>0.5722202889999999</v>
-      </c>
-      <c r="C46">
         <v>-0.01457780078066628</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42490</v>
       </c>
       <c r="B47">
-        <v>0.6532996560000002</v>
-      </c>
-      <c r="C47">
         <v>0.05156997881738978</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42521</v>
       </c>
       <c r="B48">
-        <v>0.6275117159999999</v>
-      </c>
-      <c r="C48">
         <v>-0.01559786207322622</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42551</v>
       </c>
       <c r="B49">
-        <v>0.7021699229999998</v>
-      </c>
-      <c r="C49">
         <v>0.04587260802244209</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42582</v>
       </c>
       <c r="B50">
-        <v>0.7444329189999999</v>
-      </c>
-      <c r="C50">
         <v>0.02482889365446739</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42613</v>
       </c>
       <c r="B51">
-        <v>0.7637867009999999</v>
-      </c>
-      <c r="C51">
         <v>0.01109459801474899</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42643</v>
       </c>
       <c r="B52">
-        <v>0.803211667</v>
-      </c>
-      <c r="C52">
         <v>0.02235245677816233</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42674</v>
       </c>
       <c r="B53">
-        <v>0.82499773</v>
-      </c>
-      <c r="C53">
         <v>0.01208181124750896</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42704</v>
       </c>
       <c r="B54">
-        <v>0.728506002</v>
-      </c>
-      <c r="C54">
         <v>-0.05287224549040948</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42735</v>
       </c>
       <c r="B55">
-        <v>0.7769583099999999</v>
-      </c>
-      <c r="C55">
         <v>0.02803132181429357</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42766</v>
       </c>
       <c r="B56">
-        <v>0.8197658269999999</v>
-      </c>
-      <c r="C56">
         <v>0.02409033276644523</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42794</v>
       </c>
       <c r="B57">
-        <v>0.88964325</v>
-      </c>
-      <c r="C57">
         <v>0.03839912914245547</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42825</v>
       </c>
       <c r="B58">
-        <v>0.9317667779999999</v>
-      </c>
-      <c r="C58">
         <v>0.02229178867492565</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42855</v>
       </c>
       <c r="B59">
-        <v>0.9419653690000001</v>
-      </c>
-      <c r="C59">
         <v>0.005279411115330923</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42886</v>
       </c>
       <c r="B60">
-        <v>0.87624068</v>
-      </c>
-      <c r="C60">
         <v>-0.03384441867459487</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42916</v>
       </c>
       <c r="B61">
-        <v>0.934749555</v>
-      </c>
-      <c r="C61">
         <v>0.03118409893980134</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42947</v>
       </c>
       <c r="B62">
-        <v>1.036918686</v>
-      </c>
-      <c r="C62">
         <v>0.05280741930445876</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42978</v>
       </c>
       <c r="B63">
-        <v>1.060376394</v>
-      </c>
-      <c r="C63">
         <v>0.01151627119984111</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43008</v>
       </c>
       <c r="B64">
-        <v>1.13171795</v>
-      </c>
-      <c r="C64">
         <v>0.03462549668485493</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43039</v>
       </c>
       <c r="B65">
-        <v>1.104793598</v>
-      </c>
-      <c r="C65">
         <v>-0.01263035384207367</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43069</v>
       </c>
       <c r="B66">
-        <v>1.10666916</v>
-      </c>
-      <c r="C66">
         <v>0.0008910906997161572</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43100</v>
       </c>
       <c r="B67">
-        <v>1.158563142</v>
-      </c>
-      <c r="C67">
         <v>0.02463319014932575</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43131</v>
       </c>
       <c r="B68">
-        <v>1.272925731</v>
-      </c>
-      <c r="C68">
         <v>0.05298088657904065</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43159</v>
       </c>
       <c r="B69">
-        <v>1.313045844</v>
-      </c>
-      <c r="C69">
         <v>0.01765130837880413</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43190</v>
       </c>
       <c r="B70">
-        <v>1.351024785</v>
-      </c>
-      <c r="C70">
         <v>0.01641945018016688</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43220</v>
       </c>
       <c r="B71">
-        <v>1.33558672</v>
-      </c>
-      <c r="C71">
         <v>-0.006566525839496684</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43251</v>
       </c>
       <c r="B72">
-        <v>1.242642833</v>
-      </c>
-      <c r="C72">
         <v>-0.03979466324418923</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43281</v>
       </c>
       <c r="B73">
-        <v>1.284410827</v>
-      </c>
-      <c r="C73">
         <v>0.01862445209080721</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43312</v>
       </c>
       <c r="B74">
-        <v>1.283417882</v>
-      </c>
-      <c r="C74">
         <v>-0.0004346613088435092</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43343</v>
       </c>
       <c r="B75">
-        <v>1.252361838</v>
-      </c>
-      <c r="C75">
         <v>-0.01360068353883548</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43373</v>
       </c>
       <c r="B76">
-        <v>1.262741704</v>
-      </c>
-      <c r="C76">
         <v>0.004608436275592709</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43404</v>
       </c>
       <c r="B77">
-        <v>1.28750967</v>
-      </c>
-      <c r="C77">
         <v>0.01094599792641637</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43434</v>
       </c>
       <c r="B78">
-        <v>1.260463709</v>
-      </c>
-      <c r="C78">
         <v>-0.01182332094797212</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43465</v>
       </c>
       <c r="B79">
-        <v>1.290126609</v>
-      </c>
-      <c r="C79">
         <v>0.01312248450700504</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43496</v>
       </c>
       <c r="B80">
-        <v>1.377817555</v>
-      </c>
-      <c r="C80">
         <v>0.03829087250258678</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43524</v>
       </c>
       <c r="B81">
-        <v>1.354189855</v>
-      </c>
-      <c r="C81">
         <v>-0.00993671694883258</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43555</v>
       </c>
       <c r="B82">
-        <v>1.339274746</v>
-      </c>
-      <c r="C82">
         <v>-0.006335559117427225</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43585</v>
       </c>
       <c r="B83">
-        <v>1.346270997</v>
-      </c>
-      <c r="C83">
         <v>0.002990777809217526</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43616</v>
       </c>
       <c r="B84">
-        <v>1.364540286</v>
-      </c>
-      <c r="C84">
         <v>0.007786521260058965</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43646</v>
       </c>
       <c r="B85">
-        <v>1.481689949</v>
-      </c>
-      <c r="C85">
         <v>0.04954437177223059</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43677</v>
       </c>
       <c r="B86">
-        <v>1.530376531</v>
-      </c>
-      <c r="C86">
         <v>0.01961831775948397</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43708</v>
       </c>
       <c r="B87">
-        <v>1.556182928</v>
-      </c>
-      <c r="C87">
         <v>0.01019863908941709</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43738</v>
       </c>
       <c r="B88">
-        <v>1.57895418</v>
-      </c>
-      <c r="C88">
         <v>0.008908302981984528</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43769</v>
       </c>
       <c r="B89">
-        <v>1.628482277</v>
-      </c>
-      <c r="C89">
         <v>0.01920472158214137</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43799</v>
       </c>
       <c r="B90">
-        <v>1.587036356</v>
-      </c>
-      <c r="C90">
         <v>-0.01576800473895668</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43830</v>
       </c>
       <c r="B91">
-        <v>1.66915998</v>
-      </c>
-      <c r="C91">
         <v>0.03174428678187469</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43861</v>
       </c>
       <c r="B92">
-        <v>1.674048705</v>
-      </c>
-      <c r="C92">
         <v>0.001831559380715886</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43890</v>
       </c>
       <c r="B93">
-        <v>1.730876797</v>
-      </c>
-      <c r="C93">
         <v>0.02125170416445354</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43921</v>
       </c>
       <c r="B94">
-        <v>1.821517866</v>
-      </c>
-      <c r="C94">
         <v>0.03319119672464654</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43951</v>
       </c>
       <c r="B95">
-        <v>1.900941225</v>
-      </c>
-      <c r="C95">
         <v>0.02814916040655713</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43982</v>
       </c>
       <c r="B96">
-        <v>1.919363852</v>
-      </c>
-      <c r="C96">
         <v>0.00635056885718166</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44012</v>
       </c>
       <c r="B97">
-        <v>1.946668198</v>
-      </c>
-      <c r="C97">
         <v>0.009352841024353298</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44043</v>
       </c>
       <c r="B98">
-        <v>2.028991608</v>
-      </c>
-      <c r="C98">
         <v>0.02793779430472565</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44074</v>
       </c>
       <c r="B99">
-        <v>2.050675914</v>
-      </c>
-      <c r="C99">
         <v>0.00715891914085498</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44104</v>
       </c>
       <c r="B100">
-        <v>2.016952402</v>
-      </c>
-      <c r="C100">
         <v>-0.01105443939332862</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44135</v>
       </c>
       <c r="B101">
-        <v>2.021309288</v>
-      </c>
-      <c r="C101">
         <v>0.001444134815355991</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44165</v>
       </c>
       <c r="B102">
-        <v>2.009316914</v>
-      </c>
-      <c r="C102">
-        <v>-0.003969263937204759</v>
+        <v>-0.006767065219441259</v>
       </c>
     </row>
   </sheetData>
